--- a/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Exploración de terrenos\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68741DB-499C-4AC1-A70A-FDF2ACFDA8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3320F-8939-4C2C-9880-AC5CD40E3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="1" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapa C" sheetId="3" r:id="rId2"/>
-    <sheet name="Mapa B" sheetId="2" r:id="rId3"/>
+    <sheet name="Mapa B" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapa C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -490,6 +490,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>3.08</v>
+      </c>
+      <c r="D3">
+        <v>10.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>5.94</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -507,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -521,13 +604,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>4.3899999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -538,13 +621,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3.08</v>
+        <v>0.33</v>
       </c>
       <c r="D3">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -555,62 +638,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>5.94</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Exploración de terrenos\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3320F-8939-4C2C-9880-AC5CD40E3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175761B-25A2-49BF-A72C-0977538B550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Parámetros</t>
   </si>
@@ -57,12 +57,24 @@
   </si>
   <si>
     <t>Tiempo (m)</t>
+  </si>
+  <si>
+    <t>Promedio de iteraciones</t>
+  </si>
+  <si>
+    <t>Tiempo promedio (min)</t>
+  </si>
+  <si>
+    <t>Costo promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,8 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,17 +422,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0EB0-A118-4F16-8798-B12BAB8DFA38}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -429,59 +448,68 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>10.210000000000001</v>
+        <v>14.98</v>
       </c>
       <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>13.9</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(B2:B4)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:J2" si="0">AVERAGE(C2:C4)</f>
+        <v>14.733333333333334</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>4.7300000000000004</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>11.62</v>
+        <v>17.22</v>
       </c>
       <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>13.9</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
+++ b/Daniela Baldizón/Exploración de terrenos/Resultados/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Exploración de terrenos\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175761B-25A2-49BF-A72C-0977538B550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793EDD6-8BC8-4365-B891-BA34F5CFDCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F3C09EC-CDC8-425A-96C2-BFF8088F3D3B}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Mapa A" sheetId="1" r:id="rId1"/>
     <sheet name="Mapa B" sheetId="2" r:id="rId2"/>
     <sheet name="Mapa C" sheetId="3" r:id="rId3"/>
+    <sheet name="Mapa D" sheetId="4" r:id="rId4"/>
+    <sheet name="Mapa E" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>Parámetros</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>Iteraciones</t>
   </si>
@@ -47,16 +46,7 @@
     <t>Costo</t>
   </si>
   <si>
-    <t>Fase anterior</t>
-  </si>
-  <si>
-    <t>Tiempo (h)</t>
-  </si>
-  <si>
     <t>Corrida</t>
-  </si>
-  <si>
-    <t>Tiempo (m)</t>
   </si>
   <si>
     <t>Promedio de iteraciones</t>
@@ -67,13 +57,16 @@
   <si>
     <t>Costo promedio</t>
   </si>
+  <si>
+    <t>Tiempo (min)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -107,7 +100,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,8 +417,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0EB0-A118-4F16-8798-B12BAB8DFA38}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>14.98</v>
+      </c>
+      <c r="D2">
+        <v>13.9</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(B2:B4)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>14.733333333333334</v>
+      </c>
+      <c r="J2" s="2">
+        <f>AVERAGE(D2:D4)</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>17.22</v>
+      </c>
+      <c r="D4">
+        <v>13.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.78</v>
+      </c>
+      <c r="D2">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.98</v>
+      </c>
+      <c r="D3">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.26</v>
+      </c>
+      <c r="D4">
+        <v>5.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,25 +593,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -463,25 +619,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>14.98</v>
+        <v>1.91</v>
       </c>
       <c r="D2">
-        <v>13.9</v>
+        <v>15.82</v>
       </c>
       <c r="H2" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>24.666666666666668</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:J2" si="0">AVERAGE(C2:C4)</f>
-        <v>14.733333333333334</v>
+        <f>AVERAGE(C2:C4)</f>
+        <v>5.5</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" si="0"/>
-        <v>13.9</v>
+        <f>AVERAGE(D2:D4)</f>
+        <v>25.766666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -489,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D3">
-        <v>13.9</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -503,13 +659,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>17.22</v>
+        <v>9.49</v>
       </c>
       <c r="D4">
-        <v>13.9</v>
+        <v>31.74</v>
       </c>
     </row>
   </sheetData>
@@ -517,82 +673,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB311B8-5CD4-4521-A639-45562D18A72A}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8894304-0D9D-4391-8626-52ED10EF5D76}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>4.91</v>
+      </c>
+      <c r="D2">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>4.78</v>
+      </c>
+      <c r="D3">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>3.08</v>
-      </c>
-      <c r="D3">
-        <v>10.5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>5.94</v>
+        <v>5.79</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -600,82 +744,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B5E1E-70FF-4D40-B85D-A1ACC4626F8A}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDAB3EA-87D4-423F-87CB-5CD7D9DA637D}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.27</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.35</v>
+      </c>
+      <c r="D3">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>2.5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
-        <v>2.5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>9.4499999999999993</v>
+        <v>2.04</v>
       </c>
       <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>16.41</v>
       </c>
     </row>
   </sheetData>
